--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1898816.603053035</v>
+        <v>2004890.20120588</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9933587.179114223</v>
+        <v>9948739.094241953</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>195.7072339319584</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>54.72594858344398</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>132.9184145500494</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>106.0900968852903</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>195.5565936082887</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>212.1230271340079</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>30.84255098888848</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219.7549177952623</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>292.9594311738712</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>251.0041887951234</v>
+        <v>160.0509524740924</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1427,16 +1429,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>101.9154861872842</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.255571502172205</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>116.2873251119332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174116</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>58.24570521548608</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>140.3829797864967</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>37.17792077063368</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>48.13676080754331</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695339</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>158.4589496224478</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>59.44001103519371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>166.5507736588103</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,10 +3559,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>67.00771475394289</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>105.5518343409904</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>45.36631724422188</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.733841663478</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695715</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>36.2249434387023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1501.213961756483</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.251444816072</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D2" t="n">
-        <v>1132.251444816072</v>
+        <v>933.2161775761945</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>933.2161775761945</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>522.230272786587</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>106.5255225108758</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>106.5255225108758</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796417</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820605</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1502.185095276467</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1502.185095276467</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610488</v>
+        <v>1213.066757780305</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046014</v>
+        <v>958.3822695744182</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676408</v>
+        <v>668.9650995374575</v>
       </c>
       <c r="X4" t="n">
-        <v>452.6479724696235</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="Y4" t="n">
-        <v>345.4862584440777</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471215</v>
+        <v>1605.165657180484</v>
       </c>
       <c r="C5" t="n">
-        <v>1517.887535471215</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>1995.304989156296</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>1605.165657180484</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>661.957801444442</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>493.0216185165351</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>342.9049791041994</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>194.9918855218062</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.595817172699</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>843.6062662746817</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>843.6062662746817</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410104</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410104</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X8" t="n">
-        <v>2588.318918149024</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y8" t="n">
-        <v>2198.179586173212</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4887,16 +4889,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>1162.885481142124</v>
+        <v>1454.029846653837</v>
       </c>
       <c r="W10" t="n">
-        <v>1162.885481142124</v>
+        <v>1164.612676616877</v>
       </c>
       <c r="X10" t="n">
-        <v>934.8959302441062</v>
+        <v>936.6231257188592</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>936.6231257188592</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5060,28 +5062,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,22 +5126,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958784</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679716</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D13" t="n">
-        <v>633.9926444679716</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>486.0795508855784</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814783006</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038392</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797792</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510513</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304626</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267666</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369648</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261182</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,37 +5521,37 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5610,10 +5612,10 @@
         <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424041</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>376.4492432300683</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>376.4492432300683</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>4653.44695754965</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2238.116390149333</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.514925172274</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,16 +6129,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>456.5257005456925</v>
       </c>
       <c r="F31" t="n">
-        <v>261.8464821474262</v>
+        <v>309.6357530477821</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>142.4396537626621</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6722,7 +6724,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6765,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>642.8692823226939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>473.9330993947871</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>323.8164599824513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6889,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.5177471529337</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>2978.613657539997</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>3606.211621094604</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>4158.121351333891</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4581.744500828959</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>377.6556127449245</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1876.273679552237</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1621.58919134635</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7254,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1018.438627038651</v>
+        <v>1063.573343591573</v>
       </c>
       <c r="C40" t="n">
-        <v>849.5024441107445</v>
+        <v>894.6371606636665</v>
       </c>
       <c r="D40" t="n">
-        <v>699.3858046984087</v>
+        <v>744.5205212513307</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>596.6074276689376</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>449.7174801710272</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>282.5213808859071</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>1648.869221910438</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X40" t="n">
-        <v>1420.879671012421</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y40" t="n">
-        <v>1200.087091868891</v>
+        <v>1245.221808421813</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,16 +7399,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>835.5837926935558</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>666.6476097656489</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>516.5309703533131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>368.61787677092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>221.7279292730097</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.232257523796</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7673,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7834,13 +7836,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
         <v>1647.011051783227</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.330122437638514e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>46.6999868309282</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>144.165476520759</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>135.8503182118948</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>40.64330621514785</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>73.624177726021</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>214.9597225531943</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>92.15795203868058</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>127.7255247667964</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>106.0841272570751</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>119.6337007304339</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>79.42624789262628</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>34.74287850523351</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>120.157821048047</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>870023.1299026578</v>
+        <v>877747.6356540499</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>870023.1299026578</v>
+        <v>877747.6356540499</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855433.2012196664</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
@@ -26335,25 +26337,25 @@
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="L2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>6.677398863726482e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551177</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309561</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309561</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309551</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744388</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744366</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744386</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744388</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="L4" t="n">
-        <v>8727.256391744329</v>
-      </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744149</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-949863.7385470829</v>
+        <v>-768482.4540877487</v>
       </c>
       <c r="C6" t="n">
-        <v>378881.0071805095</v>
+        <v>346269.3294881709</v>
       </c>
       <c r="D6" t="n">
-        <v>378881.0071805099</v>
+        <v>186253.8667401718</v>
       </c>
       <c r="E6" t="n">
-        <v>129740.3717599977</v>
+        <v>129740.3717599975</v>
       </c>
       <c r="F6" t="n">
-        <v>455152.8335673533</v>
+        <v>455152.833567353</v>
       </c>
       <c r="G6" t="n">
-        <v>455152.8335673528</v>
+        <v>455152.833567353</v>
       </c>
       <c r="H6" t="n">
-        <v>455152.8335673529</v>
+        <v>455152.833567353</v>
       </c>
       <c r="I6" t="n">
         <v>455152.833567353</v>
       </c>
       <c r="J6" t="n">
-        <v>237621.6311700754</v>
+        <v>287547.6557573706</v>
       </c>
       <c r="K6" t="n">
         <v>455152.8335673529</v>
       </c>
       <c r="L6" t="n">
-        <v>455152.8335673531</v>
+        <v>406858.8635591622</v>
       </c>
       <c r="M6" t="n">
-        <v>370097.8056318411</v>
+        <v>370097.8056318412</v>
       </c>
       <c r="N6" t="n">
         <v>455152.8335673529</v>
       </c>
       <c r="O6" t="n">
-        <v>455152.8335673529</v>
+        <v>455152.8335673531</v>
       </c>
       <c r="P6" t="n">
-        <v>455152.8335673529</v>
+        <v>455152.8335673534</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.346748579658103e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>186.2231361403034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10.98396408902651</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>61.74404581168812</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.4945564668045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>159.1264480123943</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>157.6080735444611</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>114.5784970340428</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>96.27076102970096</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162.9789238682183</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>88.97093889839056</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>1.133454528704618</v>
+        <v>92.08669084973565</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28144,19 +28146,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28269,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.955756265127126e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28327,19 +28329,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,13 +28380,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.429837397906874e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.494197868882551e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29749,16 +29751,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.918074434913392e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29812,10 +29814,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.346748579658103e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-1.854320375410477e-12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-8.346748579658103e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>510.682889626564</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>610.054682604365</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>297.7596336167232</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33026,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,7 +33745,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491741</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>610.054682604365</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5488557045456</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295832</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>163.785226202393</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,10 +36612,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.1808046631526</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38035,10 +38037,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>471.5003028244908</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004890.20120588</v>
+        <v>2000794.559701114</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>9.99112361440214</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>54.72594858344398</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9.091257205979733</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>132.9184145500494</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>48.7571778938133</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.1230271340079</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="H7" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>292.9594311738712</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>267.2205648780402</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>160.0509524740924</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>101.9154861872842</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>73.3661862535883</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>125.9491534982824</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187881</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>37.17792077063368</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>48.13676080754331</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>107.1685137621111</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>166.5507736588103</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>105.5518343409904</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>933.2161775761945</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>933.2161775761945</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>522.230272786587</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>106.5255225108758</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>106.5255225108758</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4369,13 +4369,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,19 +4412,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>315.0239194619518</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1502.185095276467</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1502.185095276467</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1213.066757780305</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>958.3822695744182</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>668.9650995374575</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>440.9755486394401</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.18296949591</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.165657180484</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>1737.614716642644</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>1379.349018035893</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>993.5607654376488</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>582.5748606480413</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>166.8701103723301</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4585,7 +4585,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.304989156296</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y5" t="n">
-        <v>1605.165657180484</v>
+        <v>2106.577233583055</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
         <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.069587875903</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="C8" t="n">
-        <v>1528.069587875903</v>
+        <v>1789.055335321089</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.069587875903</v>
+        <v>1430.789636714339</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1045.001384116095</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>634.0154793264871</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940025</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1454.029846653837</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1164.612676616877</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>936.6231257188592</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>936.6231257188592</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,25 +5056,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,19 +5129,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836018</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,16 +5755,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>4101.537227310363</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.832398530834</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>754.5554335404214</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>456.5257005456925</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>309.6357530477821</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>142.4396537626621</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2271.666355830531</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2052.064890853472</v>
       </c>
       <c r="U37" t="n">
-        <v>1876.273679552237</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V37" t="n">
-        <v>1621.58919134635</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W37" t="n">
-        <v>1332.172021309389</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>1332.172021309389</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1063.573343591573</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C40" t="n">
-        <v>894.6371606636665</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D40" t="n">
-        <v>744.5205212513307</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>596.6074276689376</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>449.7174801710272</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>282.5213808859071</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565343</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>1466.014387565343</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y40" t="n">
-        <v>1245.221808421813</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,31 +7399,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282434</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.6999868309282</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>152.3434691354489</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>45.44677382459264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>41.29766760034539</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>214.9597225531943</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>92.15795203868058</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>73.85777223953347</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>119.6337007304339</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.9259388694754307</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34.74287850523351</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049988</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26438,28 +26438,28 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744257</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744217</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="L4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768482.4540877487</v>
+        <v>-768482.4540877489</v>
       </c>
       <c r="C6" t="n">
-        <v>346269.3294881709</v>
+        <v>346269.3294881702</v>
       </c>
       <c r="D6" t="n">
-        <v>186253.8667401718</v>
+        <v>186253.866740172</v>
       </c>
       <c r="E6" t="n">
-        <v>129740.3717599975</v>
+        <v>129392.992505641</v>
       </c>
       <c r="F6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129959</v>
       </c>
       <c r="G6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129963</v>
       </c>
       <c r="H6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="I6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="J6" t="n">
-        <v>287547.6557573706</v>
+        <v>287200.2765030135</v>
       </c>
       <c r="K6" t="n">
-        <v>455152.8335673529</v>
+        <v>454805.4543129963</v>
       </c>
       <c r="L6" t="n">
-        <v>406858.8635591622</v>
+        <v>406511.4843048054</v>
       </c>
       <c r="M6" t="n">
-        <v>370097.8056318412</v>
+        <v>369750.4263774843</v>
       </c>
       <c r="N6" t="n">
-        <v>455152.8335673529</v>
+        <v>454805.4543129962</v>
       </c>
       <c r="O6" t="n">
-        <v>455152.8335673531</v>
+        <v>454805.4543129962</v>
       </c>
       <c r="P6" t="n">
-        <v>455152.8335673534</v>
+        <v>454805.4543129962</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,10 +26795,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>344.6919180062808</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10.98396408902651</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>157.2153428388245</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>61.74404581168812</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>252.2613746685921</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,16 +27675,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.6080735444611</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H7" t="n">
-        <v>96.27076102970096</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>88.97093889839056</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>143.7011607754132</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>92.08669084973565</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31849,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34792,10 +34792,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660937</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419612</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2000794.559701114</v>
+        <v>2002555.090003899</v>
       </c>
     </row>
     <row r="7">
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>9.091257205979733</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>94.83276152020555</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>27.79213100876617</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7571778938133</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542835</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>267.2205648780402</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1426,10 +1426,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>83.4472944825329</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>73.3661862535883</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>100.9410961977583</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>125.9491534982824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2058,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>36.43062059490413</v>
+        <v>13.72582864853728</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187881</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>57.65182679923952</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>107.1685137621111</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>147.6895341487369</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>240.06330988836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>790.7764984014352</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1154.038517360655</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598622</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="C4" t="n">
-        <v>461.9138669598622</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D4" t="n">
-        <v>461.9138669598622</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E4" t="n">
-        <v>461.9138669598622</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>315.0239194619518</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1540.65545187227</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1285.970963666383</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>996.5537936294221</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>768.5642427314048</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901019</v>
+        <v>547.7716635878746</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2106.577233583055</v>
+        <v>1716.437901607243</v>
       </c>
       <c r="C5" t="n">
-        <v>1737.614716642644</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D5" t="n">
-        <v>1379.349018035893</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>993.5607654376488</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>582.5748606480413</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>166.8701103723301</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="X5" t="n">
-        <v>2106.577233583055</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="Y5" t="n">
-        <v>2106.577233583055</v>
+        <v>1716.437901607243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657496</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378427</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255069</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431138</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452035</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
         <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2158.017852261501</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C8" t="n">
-        <v>1789.055335321089</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D8" t="n">
-        <v>1430.789636714339</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E8" t="n">
-        <v>1045.001384116095</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F8" t="n">
-        <v>634.0154793264871</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261501</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4950,31 +4950,31 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2295.62718338566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2076.025718408601</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1786.950491752799</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1532.266003546912</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1242.848833509951</v>
       </c>
       <c r="X13" t="n">
-        <v>1070.17693676985</v>
+        <v>1014.859282611934</v>
       </c>
       <c r="Y13" t="n">
-        <v>849.3843576263199</v>
+        <v>794.0667034684034</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,19 +5354,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>651.5752442188632</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F22" t="n">
-        <v>297.8113689946113</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G22" t="n">
-        <v>130.6152697094912</v>
+        <v>107.6811364303327</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6600,16 +6600,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,31 +6621,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2254.869721166297</v>
@@ -6691,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2271.666355830531</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2052.064890853472</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7599,13 +7599,13 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
         <v>1202.091371290588</v>
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>199.7516311504061</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019047</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>319.4183821282434</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>97.5789915191117</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>152.3434691354489</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>45.49286644881084</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>41.29766760034539</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>6.257951202385101</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>103.8640922513198</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96364621897283</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>185.1299285698844</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.85777223953347</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9259388694754307</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830045</v>
@@ -26331,31 +26331,31 @@
         <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403382</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309552</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744348</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="I4" t="n">
-        <v>8727.256391744257</v>
-      </c>
       <c r="J4" t="n">
-        <v>8727.256391744217</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768482.4540877489</v>
+        <v>-768482.4540877491</v>
       </c>
       <c r="C6" t="n">
-        <v>346269.3294881702</v>
+        <v>346269.3294881709</v>
       </c>
       <c r="D6" t="n">
-        <v>186253.866740172</v>
+        <v>186253.8667401717</v>
       </c>
       <c r="E6" t="n">
-        <v>129392.992505641</v>
+        <v>129705.6338345625</v>
       </c>
       <c r="F6" t="n">
-        <v>454805.4543129959</v>
+        <v>455118.0956419172</v>
       </c>
       <c r="G6" t="n">
-        <v>454805.4543129963</v>
+        <v>455118.0956419175</v>
       </c>
       <c r="H6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="I6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="J6" t="n">
-        <v>287200.2765030135</v>
+        <v>287512.9178319348</v>
       </c>
       <c r="K6" t="n">
-        <v>454805.4543129963</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="L6" t="n">
-        <v>406511.4843048054</v>
+        <v>406824.1256337264</v>
       </c>
       <c r="M6" t="n">
-        <v>369750.4263774843</v>
+        <v>370063.0677064055</v>
       </c>
       <c r="N6" t="n">
-        <v>454805.4543129962</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="O6" t="n">
-        <v>454805.4543129962</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="P6" t="n">
-        <v>454805.4543129962</v>
+        <v>455118.0956419177</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>157.2153428388245</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>191.394392600995</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>337.4807607622414</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>252.2613746685921</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193758</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>143.7011607754132</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078241</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862646002</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>497.4319917882564</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0158803980277</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>617.0987427660937</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244908</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902399</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
